--- a/excel_data/in/ex_cons_tmp.xlsx
+++ b/excel_data/in/ex_cons_tmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydocument\Desktop\exceltool\pleethai_batch\excel_data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085EDF4-BEC2-4FD2-BCF2-0689D6975B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402A7038-FDE4-4AD3-AF7D-0F52C2352050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9894" yWindow="1080" windowWidth="11580" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1434" yWindow="1434" windowWidth="17976" windowHeight="10746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example_Input" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No.(未使用)</t>
   </si>
@@ -47,15 +47,6 @@
     <t>words_list</t>
   </si>
   <si>
-    <t>誰もが最後には死ななければならないということは明白だね</t>
-  </si>
-  <si>
-    <t>壁に明るい色を塗ると</t>
-  </si>
-  <si>
-    <t>暖かい光が差し込む明るい庭に</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -66,24 +57,6 @@
   </si>
   <si>
     <t>order</t>
-  </si>
-  <si>
-    <t>死ぬ/die/ตาย</t>
-  </si>
-  <si>
-    <t>壁/wall/กำแพง</t>
-  </si>
-  <si>
-    <t>明るい/bright/สดใส</t>
-  </si>
-  <si>
-    <t>色/color/สี</t>
-  </si>
-  <si>
-    <t>暖かい/warm/อบอุ่น</t>
-  </si>
-  <si>
-    <t>光/light/แสง</t>
   </si>
 </sst>
 </file>
@@ -133,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,11 +129,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -192,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -210,7 +178,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -495,7 +462,7 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G599"/>
+  <dimension ref="A1:G584"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -575,8 +542,8 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="5"/>
@@ -650,8 +617,8 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="5"/>
@@ -1630,8 +1597,8 @@
     </row>
     <row r="221" spans="2:4">
       <c r="B221" s="5"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
     </row>
     <row r="222" spans="2:4">
       <c r="B222" s="5"/>
@@ -1680,8 +1647,8 @@
     </row>
     <row r="231" spans="2:4">
       <c r="B231" s="5"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
     </row>
     <row r="232" spans="2:4">
       <c r="B232" s="5"/>
@@ -1705,8 +1672,8 @@
     </row>
     <row r="236" spans="2:4">
       <c r="B236" s="5"/>
-      <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" s="5"/>
@@ -1755,8 +1722,8 @@
     </row>
     <row r="246" spans="2:4">
       <c r="B246" s="5"/>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
     </row>
     <row r="247" spans="2:4">
       <c r="B247" s="5"/>
@@ -3448,85 +3415,10 @@
       <c r="C584" s="7"/>
       <c r="D584" s="7"/>
     </row>
-    <row r="585" spans="2:4">
-      <c r="B585" s="5"/>
-      <c r="C585" s="7"/>
-      <c r="D585" s="7"/>
-    </row>
-    <row r="586" spans="2:4">
-      <c r="B586" s="5"/>
-      <c r="C586" s="7"/>
-      <c r="D586" s="7"/>
-    </row>
-    <row r="587" spans="2:4">
-      <c r="B587" s="5"/>
-      <c r="C587" s="7"/>
-      <c r="D587" s="7"/>
-    </row>
-    <row r="588" spans="2:4">
-      <c r="B588" s="5"/>
-      <c r="C588" s="7"/>
-      <c r="D588" s="7"/>
-    </row>
-    <row r="589" spans="2:4">
-      <c r="B589" s="5"/>
-      <c r="C589" s="7"/>
-      <c r="D589" s="7"/>
-    </row>
-    <row r="590" spans="2:4">
-      <c r="B590" s="5"/>
-      <c r="C590" s="7"/>
-      <c r="D590" s="7"/>
-    </row>
-    <row r="591" spans="2:4">
-      <c r="B591" s="5"/>
-      <c r="C591" s="7"/>
-      <c r="D591" s="7"/>
-    </row>
-    <row r="592" spans="2:4">
-      <c r="B592" s="5"/>
-      <c r="C592" s="7"/>
-      <c r="D592" s="7"/>
-    </row>
-    <row r="593" spans="2:4">
-      <c r="B593" s="5"/>
-      <c r="C593" s="7"/>
-      <c r="D593" s="7"/>
-    </row>
-    <row r="594" spans="2:4">
-      <c r="B594" s="5"/>
-      <c r="C594" s="7"/>
-      <c r="D594" s="7"/>
-    </row>
-    <row r="595" spans="2:4">
-      <c r="B595" s="5"/>
-      <c r="C595" s="7"/>
-      <c r="D595" s="7"/>
-    </row>
-    <row r="596" spans="2:4">
-      <c r="B596" s="5"/>
-      <c r="C596" s="7"/>
-      <c r="D596" s="7"/>
-    </row>
-    <row r="597" spans="2:4">
-      <c r="B597" s="5"/>
-      <c r="C597" s="7"/>
-      <c r="D597" s="7"/>
-    </row>
-    <row r="598" spans="2:4">
-      <c r="B598" s="5"/>
-      <c r="C598" s="7"/>
-      <c r="D598" s="7"/>
-    </row>
-    <row r="599" spans="2:4">
-      <c r="B599" s="5"/>
-      <c r="C599" s="7"/>
-      <c r="D599" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3535,124 +3427,40 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D29" sqref="D29"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7"/>
   <cols>
-    <col min="1" max="1" width="4.94921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.94921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11">
-        <v>1446</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="11">
-        <v>1447</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11">
-        <v>1448</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="11">
-        <v>1449</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="11">
-        <v>1450</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11">
-        <v>1451</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{4AC3D1E0-B61C-4E0B-BCE8-0285AF7B6CD9}"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>